--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -355,6 +355,33 @@
   </si>
   <si>
     <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn, đứt ngầm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Lỏng cos, đứt cos</t>
   </si>
 </sst>
 </file>
@@ -760,22 +787,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,6 +809,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1133,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M6" sqref="M6:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,43 +1165,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1219,58 +1246,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1295,23 +1322,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1349,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
@@ -1365,7 +1392,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1381,7 +1408,7 @@
         <v>44461</v>
       </c>
       <c r="C7" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
@@ -1428,7 +1455,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1469,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
@@ -1483,7 +1510,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1524,7 @@
         <v>44461</v>
       </c>
       <c r="C9" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
@@ -1538,7 +1565,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1552,7 +1579,7 @@
         <v>44461</v>
       </c>
       <c r="C10" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
@@ -1595,7 +1622,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1636,7 @@
         <v>44461</v>
       </c>
       <c r="C11" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
@@ -1654,7 +1681,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1695,7 @@
         <v>44461</v>
       </c>
       <c r="C12" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
@@ -1711,7 +1738,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1727,7 +1754,7 @@
         <v>44461</v>
       </c>
       <c r="C13" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
@@ -1768,7 +1795,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1782,7 +1809,7 @@
         <v>44461</v>
       </c>
       <c r="C14" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
@@ -1825,7 +1852,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1854,7 +1881,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1883,7 +1910,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3114,6 +3141,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3125,13 +3159,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3143,7 +3170,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3175,43 +3202,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3256,58 +3283,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3332,23 +3359,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3427,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3455,7 +3482,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3512,7 +3539,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3541,7 +3568,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3570,7 +3597,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3599,7 +3626,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3628,7 +3655,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3659,7 +3686,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3688,7 +3715,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3717,7 +3744,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3746,7 +3773,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4977,6 +5004,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4988,13 +5022,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5005,8 +5032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5038,43 +5065,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5119,58 +5146,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5195,23 +5222,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5222,7 +5249,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="37">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
@@ -5263,7 +5290,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5294,7 +5321,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5323,7 +5350,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5352,7 +5379,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5381,7 +5408,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5410,7 +5437,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5439,7 +5466,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5470,7 +5497,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5499,7 +5526,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5528,7 +5555,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5557,7 +5584,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6788,6 +6815,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6799,13 +6833,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6816,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6849,43 +6876,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -6930,58 +6957,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7006,23 +7033,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7032,7 +7059,9 @@
       <c r="B6" s="37">
         <v>44461</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44467</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>71</v>
       </c>
@@ -7043,26 +7072,30 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7101,7 +7134,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7138,7 +7171,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7175,7 +7208,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7212,7 +7245,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7241,7 +7274,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7270,7 +7303,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7301,7 +7334,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7330,7 +7363,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7359,7 +7392,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7388,7 +7421,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7507,7 +7540,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7539,7 +7572,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7848,7 +7881,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7944,7 +7977,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -8619,6 +8652,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8630,13 +8670,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8647,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8680,43 +8713,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -8761,58 +8794,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8837,23 +8870,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8863,7 +8896,9 @@
       <c r="B6" s="37">
         <v>44461</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44467</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
@@ -8871,7 +8906,7 @@
         <v>863586032897328</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>63</v>
@@ -8887,15 +8922,27 @@
       <c r="L6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8910,7 +8957,9 @@
       <c r="B7" s="37">
         <v>44461</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44467</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>65</v>
       </c>
@@ -8924,19 +8973,35 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="M7" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8949,7 +9014,9 @@
       <c r="B8" s="37">
         <v>44461</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44467</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>65</v>
       </c>
@@ -8963,19 +9030,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8988,7 +9071,9 @@
       <c r="B9" s="37">
         <v>44461</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44467</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>65</v>
       </c>
@@ -9008,15 +9093,27 @@
         <v>102</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9029,7 +9126,9 @@
       <c r="B10" s="37">
         <v>44461</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44467</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>65</v>
       </c>
@@ -9041,19 +9140,35 @@
         <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9066,7 +9181,9 @@
       <c r="B11" s="37">
         <v>44461</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44467</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>65</v>
       </c>
@@ -9078,19 +9195,37 @@
         <v>63</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9119,7 +9254,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9150,7 +9285,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9179,7 +9314,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9208,7 +9343,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9237,7 +9372,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9420,7 +9555,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -9697,7 +9832,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -9825,7 +9960,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9889,7 +10024,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10468,6 +10603,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10479,13 +10621,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10529,43 +10664,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10610,58 +10745,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -10686,23 +10821,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10728,7 +10863,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10759,7 +10894,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10788,7 +10923,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10817,7 +10952,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10846,7 +10981,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10875,7 +11010,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10904,7 +11039,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10935,7 +11070,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10964,7 +11099,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10993,7 +11128,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11022,7 +11157,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12253,6 +12388,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12264,13 +12406,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanNB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang9\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang9\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -584,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -709,9 +709,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,9 +732,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,7 +781,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,21 +818,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M14"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1140,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1165,46 +1159,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1229,7 +1223,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1246,100 +1240,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1357,18 +1351,18 @@
       <c r="E6" s="39">
         <v>868183035856942</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="58" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>73</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1391,14 +1385,14 @@
         <v>100</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1425,7 +1419,7 @@
       <c r="H7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1454,12 +1448,12 @@
         <v>100</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1477,12 +1471,12 @@
       <c r="E8" s="39">
         <v>868183035026505</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="60" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="40"/>
@@ -1509,12 +1503,12 @@
         <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1532,12 +1526,12 @@
       <c r="E9" s="39">
         <v>868183037815565</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="60" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="40"/>
@@ -1564,12 +1558,12 @@
         <v>24</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1587,12 +1581,12 @@
       <c r="E10" s="39">
         <v>867857039907592</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="60" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1621,12 +1615,12 @@
         <v>99</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1644,14 +1638,14 @@
       <c r="E11" s="39">
         <v>868183038065152</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="58" t="s">
         <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1680,12 +1674,12 @@
         <v>24</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1703,12 +1697,12 @@
       <c r="E12" s="39">
         <v>868183033868188</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1737,14 +1731,14 @@
         <v>98</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1762,12 +1756,12 @@
       <c r="E13" s="39">
         <v>868183038042284</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="50" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J13" s="1"/>
@@ -1794,12 +1788,12 @@
         <v>24</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1817,12 +1811,12 @@
       <c r="E14" s="39">
         <v>868183038056656</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1851,12 +1845,12 @@
         <v>80</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1866,10 +1860,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1881,11 +1875,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1895,10 +1889,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1910,11 +1904,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1927,7 +1921,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -1939,9 +1933,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1951,10 +1945,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1977,11 +1971,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1993,13 +1987,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -2012,7 +2006,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2044,7 +2038,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2076,7 +2070,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -2108,7 +2102,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2135,7 +2129,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2162,7 +2156,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2174,13 +2168,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2193,7 +2187,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2225,7 +2219,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2257,7 +2251,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2289,7 +2283,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2321,7 +2315,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2353,7 +2347,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2385,7 +2379,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2417,7 +2411,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2449,7 +2443,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2481,7 +2475,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2513,7 +2507,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2545,7 +2539,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2577,7 +2571,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2604,7 +2598,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2631,7 +2625,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2663,7 +2657,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2695,7 +2689,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2722,7 +2716,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2749,7 +2743,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2785,7 +2779,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2824,7 +2818,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2863,7 +2857,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2902,7 +2896,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2944,7 +2938,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2956,9 +2950,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,12 +2961,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2981,12 +2975,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,7 +2994,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3012,9 +3006,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3022,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -3040,9 +3034,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,7 +3050,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -3068,9 +3062,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,7 +3078,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -3096,9 +3090,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3112,7 +3106,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -3124,9 +3118,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,13 +3135,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3159,6 +3146,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3169,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3177,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -3202,46 +3196,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3266,7 +3260,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3283,100 +3277,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3394,16 +3388,16 @@
       <c r="E6" s="39">
         <v>861881051091438</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>86</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -3426,14 +3420,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="65"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="67"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3451,12 +3445,12 @@
       <c r="E7" s="39">
         <v>861881051081736</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="1"/>
@@ -3481,12 +3475,12 @@
         <v>36</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="67"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3504,12 +3498,12 @@
       <c r="E8" s="39">
         <v>861881051085612</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="58" t="s">
         <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3538,12 +3532,12 @@
         <v>21</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3553,10 +3547,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -3567,12 +3561,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="67"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3582,10 +3576,10 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -3596,12 +3590,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="67"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3611,10 +3605,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3625,12 +3619,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="67"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3640,10 +3634,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3654,14 +3648,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="65"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="67"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3671,10 +3665,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3685,12 +3679,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3700,10 +3694,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3714,12 +3708,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="67"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3729,10 +3723,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3744,11 +3738,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3758,10 +3752,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3773,11 +3767,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="67"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3790,7 +3784,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -3802,9 +3796,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3814,10 +3808,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3840,11 +3834,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3856,13 +3850,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3875,7 +3869,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3907,7 +3901,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3939,7 +3933,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3971,7 +3965,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3998,7 +3992,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4025,7 +4019,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -4037,13 +4031,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4056,7 +4050,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4088,7 +4082,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -4120,7 +4114,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -4152,7 +4146,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4184,7 +4178,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4216,7 +4210,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4248,7 +4242,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4280,7 +4274,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4312,7 +4306,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4344,7 +4338,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4376,7 +4370,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4408,7 +4402,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4440,7 +4434,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4467,7 +4461,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4494,7 +4488,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4526,7 +4520,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4558,7 +4552,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4585,7 +4579,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4612,7 +4606,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4648,7 +4642,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4687,7 +4681,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4726,7 +4720,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4765,7 +4759,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4807,7 +4801,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4819,9 +4813,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4830,12 +4824,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4844,12 +4838,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4863,7 +4857,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4875,9 +4869,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4891,7 +4885,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4903,9 +4897,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4919,7 +4913,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4931,9 +4925,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4947,7 +4941,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4959,9 +4953,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4975,7 +4969,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4987,9 +4981,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5004,13 +4998,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5022,6 +5009,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5032,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5040,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -5065,46 +5059,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -5129,7 +5123,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -5146,100 +5140,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5257,18 +5251,18 @@
       <c r="E6" s="39">
         <v>862631034742857</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="40" t="s">
         <v>96</v>
       </c>
@@ -5289,14 +5283,14 @@
         <v>36</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="65"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="67"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5306,10 +5300,10 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
@@ -5320,12 +5314,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="67"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5335,10 +5329,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
@@ -5349,12 +5343,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5364,10 +5358,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -5378,12 +5372,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="67"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5393,10 +5387,10 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -5407,12 +5401,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="67"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5422,10 +5416,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -5436,12 +5430,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="67"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5451,10 +5445,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -5465,14 +5459,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="65"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="67"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5482,10 +5476,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -5496,12 +5490,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5511,10 +5505,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -5525,12 +5519,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="67"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5540,10 +5534,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -5555,11 +5549,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5569,10 +5563,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -5584,11 +5578,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="67"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5601,7 +5595,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -5613,9 +5607,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5625,10 +5619,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -5651,11 +5645,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5667,13 +5661,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5686,7 +5680,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5718,7 +5712,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5750,7 +5744,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -5782,7 +5776,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -5809,7 +5803,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5836,7 +5830,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5848,13 +5842,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -5867,7 +5861,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5899,7 +5893,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5931,7 +5925,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -5963,7 +5957,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -5995,7 +5989,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -6027,7 +6021,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6059,7 +6053,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -6091,7 +6085,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6123,7 +6117,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -6155,7 +6149,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6187,7 +6181,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6219,7 +6213,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6251,7 +6245,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6278,7 +6272,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -6305,7 +6299,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -6337,7 +6331,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6369,7 +6363,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6396,7 +6390,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6423,7 +6417,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6459,7 +6453,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6498,7 +6492,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6537,7 +6531,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6576,7 +6570,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6618,7 +6612,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6630,9 +6624,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6641,12 +6635,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -6655,12 +6649,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6674,7 +6668,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6686,9 +6680,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6702,7 +6696,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -6714,9 +6708,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6730,7 +6724,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -6742,9 +6736,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,7 +6752,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -6770,9 +6764,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6786,7 +6780,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -6798,9 +6792,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6815,13 +6809,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6833,6 +6820,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6843,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6857,7 +6851,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -6876,46 +6870,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -6940,7 +6934,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -6957,100 +6951,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7068,14 +7062,14 @@
       <c r="E6" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
         <v>110</v>
@@ -7094,14 +7088,14 @@
         <v>30</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="65"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="67"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -7111,34 +7105,26 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>31</v>
-      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="67"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -7148,34 +7134,26 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -7185,34 +7163,26 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="67"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -7222,34 +7192,26 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>30</v>
-      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="67"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -7259,10 +7221,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -7273,12 +7235,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="67"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -7288,10 +7250,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -7302,14 +7264,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="65"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="67"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -7319,10 +7281,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -7333,12 +7295,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -7348,10 +7310,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -7362,12 +7324,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="67"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -7377,10 +7339,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -7392,11 +7354,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -7406,10 +7368,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -7421,11 +7383,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="67"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7438,7 +7400,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -7450,9 +7412,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7462,10 +7424,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7488,11 +7450,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -7504,13 +7466,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -7523,7 +7485,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7540,7 +7502,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7555,7 +7517,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -7572,7 +7534,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7587,7 +7549,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -7619,7 +7581,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -7646,7 +7608,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -7673,7 +7635,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -7685,13 +7647,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -7704,7 +7666,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -7736,7 +7698,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -7768,7 +7730,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -7800,7 +7762,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -7817,7 +7779,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7832,7 +7794,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -7864,7 +7826,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -7881,7 +7843,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7896,7 +7858,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -7928,7 +7890,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -7960,7 +7922,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -7977,7 +7939,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -7992,7 +7954,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -8009,7 +7971,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8024,7 +7986,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -8056,7 +8018,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -8073,7 +8035,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8088,7 +8050,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -8115,7 +8077,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -8142,7 +8104,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -8174,7 +8136,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -8206,7 +8168,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -8233,7 +8195,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -8260,7 +8222,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -8296,7 +8258,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -8335,7 +8297,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -8374,7 +8336,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -8413,7 +8375,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -8455,7 +8417,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -8467,9 +8429,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8478,12 +8440,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -8492,12 +8454,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8511,7 +8473,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -8523,9 +8485,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8539,7 +8501,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -8551,9 +8513,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8567,7 +8529,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -8579,9 +8541,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8595,7 +8557,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -8607,9 +8569,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8623,7 +8585,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -8635,9 +8597,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8652,13 +8614,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8670,6 +8625,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8680,8 +8642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8694,7 +8656,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -8713,46 +8675,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -8777,7 +8739,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -8794,100 +8756,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="65" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8912,7 +8874,7 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>93</v>
       </c>
       <c r="J6" s="1"/>
@@ -8941,14 +8903,14 @@
       <c r="S6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -8973,7 +8935,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J7" s="1"/>
@@ -9000,12 +8962,12 @@
       <c r="S7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -9030,7 +8992,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="49" t="s">
         <v>93</v>
       </c>
       <c r="J8" s="40"/>
@@ -9057,12 +9019,12 @@
       <c r="S8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -9080,12 +9042,12 @@
       <c r="E9" s="39">
         <v>866192037785993</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J9" s="40"/>
@@ -9112,12 +9074,12 @@
       <c r="S9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -9135,12 +9097,12 @@
       <c r="E10" s="39">
         <v>864811037232720</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J10" s="1"/>
@@ -9167,12 +9129,12 @@
       <c r="S10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -9190,12 +9152,12 @@
       <c r="E11" s="39">
         <v>863586032745238</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -9224,12 +9186,12 @@
       <c r="S11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -9239,10 +9201,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -9253,14 +9215,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -9270,10 +9232,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -9284,12 +9246,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -9299,10 +9261,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -9313,12 +9275,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -9328,10 +9290,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -9343,11 +9305,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -9357,10 +9319,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -9372,11 +9334,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -9386,10 +9348,10 @@
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -9401,9 +9363,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -9413,10 +9375,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -9439,11 +9401,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -9455,13 +9417,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -9474,7 +9436,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -9506,7 +9468,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -9538,7 +9500,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -9570,7 +9532,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -9597,7 +9559,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -9624,7 +9586,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -9636,13 +9598,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="63" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -9655,7 +9617,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -9687,7 +9649,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -9719,7 +9681,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -9751,7 +9713,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -9783,7 +9745,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9815,7 +9777,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -9847,7 +9809,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9879,7 +9841,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -9911,7 +9873,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -9943,7 +9905,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -9975,7 +9937,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -10007,7 +9969,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -10039,7 +10001,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -10066,7 +10028,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -10093,7 +10055,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -10125,7 +10087,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -10157,7 +10119,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -10184,7 +10146,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -10211,7 +10173,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -10247,7 +10209,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -10286,7 +10248,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -10325,7 +10287,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -10364,7 +10326,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -10406,7 +10368,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -10418,9 +10380,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10429,12 +10391,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -10443,12 +10405,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10462,7 +10424,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -10474,9 +10436,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10490,7 +10452,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -10502,9 +10464,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,7 +10480,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -10530,9 +10492,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10546,7 +10508,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -10558,9 +10520,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10574,7 +10536,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -10586,9 +10548,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10603,13 +10565,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10621,6 +10576,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10631,8 +10593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10664,43 +10626,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10745,472 +10707,828 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="B6" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183035856942</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="B7" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183033841425</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
+      <c r="B8" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183035026505</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="58" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="K8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
+      <c r="B9" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183037815565</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="58" t="s">
+        <v>78</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="B10" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>867857039907592</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="B11" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038065152</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="B12" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183033868188</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183038042284</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="B14" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183038056656</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="B15" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44463</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="39">
+        <v>861881051091438</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44463</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="39">
+        <v>861881051081736</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="49" t="s">
+        <v>93</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="B17" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44463</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="39">
+        <v>861881051085612</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="39">
+        <v>862631034742857</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -11221,62 +11539,112 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
+      <c r="B19" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="39">
+        <v>863586032897328</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -11284,31 +11652,59 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="39">
+        <v>864811037176695</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
+      <c r="O21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -11316,31 +11712,59 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
+      <c r="B22" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C22" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="39">
+        <v>863586032892030</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -11348,24 +11772,50 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
+      <c r="B23" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C23" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="39">
+        <v>866192037785993</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="16"/>
@@ -11375,24 +11825,50 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C24" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="39">
+        <v>864811037232720</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
+      <c r="K24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="16"/>
@@ -11402,32 +11878,60 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
+      <c r="B25" s="37">
+        <v>44461</v>
+      </c>
+      <c r="C25" s="37">
+        <v>44467</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="39">
+        <v>863586032745238</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -11521,7 +12025,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -11553,7 +12057,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -11617,7 +12121,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -11713,7 +12217,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -11745,7 +12249,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -11809,7 +12313,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -12203,9 +12707,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12214,10 +12718,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -12228,12 +12732,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12259,9 +12763,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12287,9 +12791,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12315,9 +12819,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12343,9 +12847,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12371,9 +12875,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12388,13 +12892,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12406,6 +12903,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
